--- a/9/2/1/1/1/Índice 2016 a 2021 - Mensual.xlsx
+++ b/9/2/1/1/1/Índice 2016 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Serie</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,13 +1519,27 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>125.4</v>
+        <v>125.5</v>
       </c>
       <c r="C67">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D67">
-        <v>125.8</v>
+        <v>125.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>127.1</v>
+      </c>
+      <c r="C68">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="D68">
+        <v>127.7</v>
       </c>
     </row>
   </sheetData>

--- a/9/2/1/1/1/Índice 2016 a 2021 - Mensual.xlsx
+++ b/9/2/1/1/1/Índice 2016 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Serie</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1542,6 +1545,20 @@
         <v>127.7</v>
       </c>
     </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>127.2</v>
+      </c>
+      <c r="C69">
+        <v>97.3</v>
+      </c>
+      <c r="D69">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/9/2/1/1/1/Índice 2016 a 2021 - Mensual.xlsx
+++ b/9/2/1/1/1/Índice 2016 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Serie</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1556,7 +1559,21 @@
         <v>97.3</v>
       </c>
       <c r="D69">
-        <v>128</v>
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>127.7</v>
+      </c>
+      <c r="C70">
+        <v>96.5</v>
+      </c>
+      <c r="D70">
+        <v>128.8</v>
       </c>
     </row>
   </sheetData>
